--- a/ResultadoEleicoesDistritos/GUARDA_SEIA.xlsx
+++ b/ResultadoEleicoesDistritos/GUARDA_SEIA.xlsx
@@ -597,64 +597,64 @@
         <v>6167</v>
       </c>
       <c r="H2" t="n">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="I2" t="n">
-        <v>652</v>
+        <v>604</v>
       </c>
       <c r="J2" t="n">
-        <v>2467</v>
+        <v>2520</v>
       </c>
       <c r="K2" t="n">
+        <v>16</v>
+      </c>
+      <c r="L2" t="n">
+        <v>738</v>
+      </c>
+      <c r="M2" t="n">
+        <v>33</v>
+      </c>
+      <c r="N2" t="n">
+        <v>409</v>
+      </c>
+      <c r="O2" t="n">
+        <v>2</v>
+      </c>
+      <c r="P2" t="n">
         <v>11</v>
       </c>
-      <c r="L2" t="n">
-        <v>697</v>
-      </c>
-      <c r="M2" t="n">
-        <v>53</v>
-      </c>
-      <c r="N2" t="n">
-        <v>484</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="Q2" t="n">
         <v>3</v>
       </c>
-      <c r="P2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>4</v>
-      </c>
       <c r="R2" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="S2" t="n">
-        <v>294</v>
+        <v>276</v>
       </c>
       <c r="T2" t="n">
-        <v>459</v>
+        <v>428</v>
       </c>
       <c r="U2" t="n">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="V2" t="n">
-        <v>3878</v>
+        <v>3963</v>
       </c>
       <c r="W2" t="n">
         <v>1</v>
       </c>
       <c r="X2" t="n">
-        <v>3954</v>
+        <v>3950</v>
       </c>
       <c r="Y2" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="Z2" t="n">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="AA2" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
